--- a/spreadsheets/scenario_1.xlsx
+++ b/spreadsheets/scenario_1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\ABM_for_IPT\agent_based_model_for_infectious_diseases\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrag0004\Models\SNAP-TB\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB18D30-CE14-4DA4-AE70-435B681F72C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16390" windowHeight="6730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="1" r:id="rId1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -393,21 +394,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.33203125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="22.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.36328125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,13 +419,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
